--- a/data/botquest.xlsx
+++ b/data/botquest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>courses</t>
   </si>
@@ -33,52 +33,16 @@
     <t>Курс01</t>
   </si>
   <si>
-    <t>Курс02</t>
-  </si>
-  <si>
-    <t>Вопрос12</t>
-  </si>
-  <si>
     <t>Вопрос11</t>
   </si>
   <si>
-    <t>Вопрос13</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
-    <t>Вопрос21</t>
-  </si>
-  <si>
-    <t>Вопрос22</t>
-  </si>
-  <si>
     <t>Ответ111</t>
   </si>
   <si>
     <t>Ответ112</t>
-  </si>
-  <si>
-    <t>Ответ121</t>
-  </si>
-  <si>
-    <t>Ответ122</t>
-  </si>
-  <si>
-    <t>Ответ131</t>
-  </si>
-  <si>
-    <t>Ответ211</t>
-  </si>
-  <si>
-    <t>Ответ212</t>
-  </si>
-  <si>
-    <t>Ответ221</t>
-  </si>
-  <si>
-    <t>Ответ222</t>
   </si>
 </sst>
 </file>
@@ -411,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -439,73 +403,23 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="C11" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
